--- a/va_facility_data_2025-02-20/Warren County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warren%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Warren County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warren%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R97531be0162d4e1ab6bc8f42e16ac37c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra2136fed9bb0491b8faeaae092db7289"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7dd02bef18bc49e399e3e82366998f9e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5277ede503354fa7bfc6e961e3786e39"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e52b227e63546b686204084d2fcea6c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfadeff375cdd429a94c5b78c26416201"/>
   </x:sheets>
 </x:workbook>
 </file>
